--- a/Source Data/Source Data Figure S1.xlsx
+++ b/Source Data/Source Data Figure S1.xlsx
@@ -3,13 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20337"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{DF31B4C5-E6C5-440E-8D29-3044BB997D79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{E754D2A7-E210-4895-8D9D-F0D4FF70FCBA}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{7E2A51E7-9C05-43B7-9DE9-4A39BEFA1544}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{9F2CDBE1-80A1-4C76-B814-B5F330B03339}"/>
   <bookViews>
-    <workbookView xWindow="8880" yWindow="735" windowWidth="20520" windowHeight="17145" tabRatio="787" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8880" yWindow="732" windowWidth="20520" windowHeight="17148" tabRatio="787" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Figure S1a" sheetId="39" r:id="rId1"/>
     <sheet name="Figure S1e" sheetId="40" r:id="rId2"/>
+    <sheet name="Figure S1g" sheetId="41" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>PCA distance between human and pig based on leiden classification.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -85,13 +86,117 @@
   </si>
   <si>
     <t>SI_240d</t>
+  </si>
+  <si>
+    <t>LI_240d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI_180d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI_90d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI_60d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LI_0d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI_240d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI_180d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI_90d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI_60d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SI_0d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stem</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>Progenitor</t>
+  </si>
+  <si>
+    <t>Goblet</t>
+  </si>
+  <si>
+    <t>Tuft</t>
+  </si>
+  <si>
+    <t>EECs</t>
+  </si>
+  <si>
+    <t>BEST4 enterocytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Colonocytes</t>
+  </si>
+  <si>
+    <t>Enterocytes</t>
+  </si>
+  <si>
+    <t>Myeloid</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Endothelial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mesenchymal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Neuronal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plasma</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B cells</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T lymphocytes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Epithelial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The the proportion representation of cell lineages and epithelial cells.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,6 +224,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -140,7 +252,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -151,8 +263,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -437,20 +553,20 @@
   <dimension ref="A1:P13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14" customWidth="1"/>
+    <col min="1" max="3" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -465,7 +581,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>6</v>
@@ -474,7 +590,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -485,7 +601,7 @@
         <v>14508</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>15</v>
       </c>
@@ -496,7 +612,7 @@
         <v>29741</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>16</v>
       </c>
@@ -507,7 +623,7 @@
         <v>21932</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>17</v>
       </c>
@@ -518,7 +634,7 @@
         <v>24856</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -529,7 +645,7 @@
         <v>5973</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -540,7 +656,7 @@
         <v>11041</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -551,7 +667,7 @@
         <v>11805</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -562,7 +678,7 @@
         <v>9943</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -573,7 +689,7 @@
         <v>14985</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -598,21 +714,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2A7A682-DADD-450E-A84E-D8B99C2BC7F1}">
   <dimension ref="A1:P55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="16.125" customWidth="1"/>
+    <col min="1" max="3" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:16" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="3"/>
@@ -627,7 +743,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="3"/>
     </row>
-    <row r="3" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -638,7 +754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -649,7 +765,7 @@
         <v>8.4251947998911696</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -660,7 +776,7 @@
         <v>8.6346721152145705</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -671,7 +787,7 @@
         <v>5.03795808974251</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -682,7 +798,7 @@
         <v>4.71891056042121</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>4</v>
       </c>
@@ -693,7 +809,7 @@
         <v>5.2936082337496302</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -704,7 +820,7 @@
         <v>4.8622619118450903</v>
       </c>
     </row>
-    <row r="10" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -715,7 +831,7 @@
         <v>12.0811956948475</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -726,7 +842,7 @@
         <v>12.9864993971186</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>4</v>
       </c>
@@ -737,7 +853,7 @@
         <v>5.7630765867113203</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,7 +864,7 @@
         <v>4.7922233269358898</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>4</v>
       </c>
@@ -759,7 +875,7 @@
         <v>7.1198247908334196</v>
       </c>
     </row>
-    <row r="15" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
@@ -770,7 +886,7 @@
         <v>5.72483175482252</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -781,7 +897,7 @@
         <v>11.2344743534495</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -792,7 +908,7 @@
         <v>11.415935647658401</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>4</v>
       </c>
@@ -803,7 +919,7 @@
         <v>8.2324732111405208</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
@@ -814,7 +930,7 @@
         <v>8.4021846943199598</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>4</v>
       </c>
@@ -825,7 +941,7 @@
         <v>7.2396722004494798</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -836,7 +952,7 @@
         <v>9.30282988926073</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>4</v>
       </c>
@@ -847,7 +963,7 @@
         <v>9.2301282563297598</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -858,7 +974,7 @@
         <v>10.1981981166628</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>4</v>
       </c>
@@ -869,7 +985,7 @@
         <v>4.63888750834432</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>5</v>
       </c>
@@ -880,7 +996,7 @@
         <v>3.72442833387412</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>4</v>
       </c>
@@ -891,7 +1007,7 @@
         <v>5.9892814319112198</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>5</v>
       </c>
@@ -902,7 +1018,7 @@
         <v>6.25159645895386</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -913,7 +1029,7 @@
         <v>4.5391940263762098</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>5</v>
       </c>
@@ -924,7 +1040,7 @@
         <v>4.4825591752795502</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -935,7 +1051,7 @@
         <v>8.4029122141646706</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>5</v>
       </c>
@@ -946,7 +1062,7 @@
         <v>13.8404801027208</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
@@ -957,7 +1073,7 @@
         <v>6.3508096667114096</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>5</v>
       </c>
@@ -968,7 +1084,7 @@
         <v>5.7490653085825603</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>4</v>
       </c>
@@ -979,7 +1095,7 @@
         <v>10.001117861867</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>5</v>
       </c>
@@ -990,7 +1106,7 @@
         <v>12.047246585908701</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>4</v>
       </c>
@@ -1001,7 +1117,7 @@
         <v>4.7437933700802999</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>5</v>
       </c>
@@ -1012,7 +1128,7 @@
         <v>6.6401338559377301</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1023,7 +1139,7 @@
         <v>13.1710757868037</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -1034,7 +1150,7 @@
         <v>12.3734971573266</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>4</v>
       </c>
@@ -1045,7 +1161,7 @@
         <v>10.084857199699901</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>5</v>
       </c>
@@ -1056,7 +1172,7 @@
         <v>17.922541247673799</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1183,7 @@
         <v>6.9780927052785202</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>5</v>
       </c>
@@ -1078,7 +1194,7 @@
         <v>5.4614001303741304</v>
       </c>
     </row>
-    <row r="44" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
@@ -1089,7 +1205,7 @@
         <v>10.5951775290405</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>5</v>
       </c>
@@ -1100,7 +1216,7 @@
         <v>7.34262381429114</v>
       </c>
     </row>
-    <row r="46" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>4</v>
       </c>
@@ -1111,7 +1227,7 @@
         <v>8.24088588447351</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>5</v>
       </c>
@@ -1122,7 +1238,7 @@
         <v>9.7122023029041493</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>4</v>
       </c>
@@ -1133,7 +1249,7 @@
         <v>8.3598084565609394</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>5</v>
       </c>
@@ -1144,7 +1260,7 @@
         <v>5.4924287208720699</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>4</v>
       </c>
@@ -1155,7 +1271,7 @@
         <v>5.7394129056897398</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>5</v>
       </c>
@@ -1166,7 +1282,7 @@
         <v>5.8649355098067604</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>4</v>
       </c>
@@ -1177,7 +1293,7 @@
         <v>11.4352887996025</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>5</v>
       </c>
@@ -1188,7 +1304,7 @@
         <v>12.228997359388099</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>4</v>
       </c>
@@ -1199,7 +1315,7 @@
         <v>7.5740950196774204</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>5</v>
       </c>
@@ -1219,22 +1335,714 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9025903A-9E03-4CF9-9B96-2B0E71C78C48}">
+  <dimension ref="A1:J25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="1">
+        <v>12500</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1330</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2602</v>
+      </c>
+      <c r="E4" s="1">
+        <v>97</v>
+      </c>
+      <c r="F4" s="1">
+        <v>75</v>
+      </c>
+      <c r="G4" s="1">
+        <v>488</v>
+      </c>
+      <c r="H4" s="1">
+        <v>456</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11569</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4877</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5617</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1044</v>
+      </c>
+      <c r="F5" s="1">
+        <v>560</v>
+      </c>
+      <c r="G5" s="1">
+        <v>74</v>
+      </c>
+      <c r="H5" s="1">
+        <v>129</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1604</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="1">
+        <v>13247</v>
+      </c>
+      <c r="C6" s="1">
+        <v>4668</v>
+      </c>
+      <c r="D6" s="1">
+        <v>4048</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1565</v>
+      </c>
+      <c r="F6" s="1">
+        <v>362</v>
+      </c>
+      <c r="G6" s="1">
+        <v>8</v>
+      </c>
+      <c r="H6" s="1">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1">
+        <v>8187</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10365</v>
+      </c>
+      <c r="D7" s="1">
+        <v>4984</v>
+      </c>
+      <c r="E7" s="1">
+        <v>333</v>
+      </c>
+      <c r="F7" s="1">
+        <v>996</v>
+      </c>
+      <c r="G7" s="1">
+        <v>10</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6</v>
+      </c>
+      <c r="I7" s="1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7780</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1963</v>
+      </c>
+      <c r="D8" s="1">
+        <v>245</v>
+      </c>
+      <c r="E8" s="1">
+        <v>562</v>
+      </c>
+      <c r="F8" s="1">
+        <v>33</v>
+      </c>
+      <c r="G8" s="1">
+        <v>29</v>
+      </c>
+      <c r="H8" s="1">
+        <v>48</v>
+      </c>
+      <c r="I8" s="1">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="1">
+        <v>9088</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1087</v>
+      </c>
+      <c r="D9" s="1">
+        <v>882</v>
+      </c>
+      <c r="E9" s="1">
+        <v>43</v>
+      </c>
+      <c r="F9" s="1">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1">
+        <v>58</v>
+      </c>
+      <c r="H9" s="1">
+        <v>114</v>
+      </c>
+      <c r="I9" s="1">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="1">
+        <v>8961</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2539</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1001</v>
+      </c>
+      <c r="E10" s="1">
+        <v>214</v>
+      </c>
+      <c r="F10" s="1">
+        <v>81</v>
+      </c>
+      <c r="G10" s="1">
+        <v>8</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44</v>
+      </c>
+      <c r="I10" s="1">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="1">
+        <v>9313</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1770</v>
+      </c>
+      <c r="D11" s="1">
+        <v>2360</v>
+      </c>
+      <c r="E11" s="1">
+        <v>154</v>
+      </c>
+      <c r="F11" s="1">
+        <v>191</v>
+      </c>
+      <c r="G11" s="1">
+        <v>12</v>
+      </c>
+      <c r="H11" s="1">
+        <v>59</v>
+      </c>
+      <c r="I11" s="1">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>8712</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4842</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1423</v>
+      </c>
+      <c r="E12" s="1">
+        <v>224</v>
+      </c>
+      <c r="F12" s="1">
+        <v>380</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="1">
+        <v>7332</v>
+      </c>
+      <c r="C13" s="1">
+        <v>481</v>
+      </c>
+      <c r="D13" s="1">
+        <v>63</v>
+      </c>
+      <c r="E13" s="1">
+        <v>14</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1">
+        <v>46</v>
+      </c>
+      <c r="I13" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="1">
+        <v>9481</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1042</v>
+      </c>
+      <c r="E16" s="1">
+        <v>686</v>
+      </c>
+      <c r="F16" s="1">
+        <v>496</v>
+      </c>
+      <c r="G16" s="1">
+        <v>336</v>
+      </c>
+      <c r="H16" s="1">
+        <v>60</v>
+      </c>
+      <c r="I16" s="1">
+        <v>235</v>
+      </c>
+      <c r="J16" s="1">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="1">
+        <v>7719</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>499</v>
+      </c>
+      <c r="E17" s="1">
+        <v>277</v>
+      </c>
+      <c r="F17" s="1">
+        <v>280</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1980</v>
+      </c>
+      <c r="H17" s="1">
+        <v>204</v>
+      </c>
+      <c r="I17" s="1">
+        <v>482</v>
+      </c>
+      <c r="J17" s="1">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="1">
+        <v>7376</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>613</v>
+      </c>
+      <c r="E18" s="1">
+        <v>119</v>
+      </c>
+      <c r="F18" s="1">
+        <v>443</v>
+      </c>
+      <c r="G18" s="1">
+        <v>3709</v>
+      </c>
+      <c r="H18" s="1">
+        <v>251</v>
+      </c>
+      <c r="I18" s="1">
+        <v>383</v>
+      </c>
+      <c r="J18" s="1">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="1">
+        <v>7184</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>155</v>
+      </c>
+      <c r="E19" s="1">
+        <v>24</v>
+      </c>
+      <c r="F19" s="1">
+        <v>118</v>
+      </c>
+      <c r="G19" s="1">
+        <v>309</v>
+      </c>
+      <c r="H19" s="1">
+        <v>179</v>
+      </c>
+      <c r="I19" s="1">
+        <v>214</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="1">
+        <v>7071</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>254</v>
+      </c>
+      <c r="E20" s="1">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1">
+        <v>139</v>
+      </c>
+      <c r="G20" s="1">
+        <v>103</v>
+      </c>
+      <c r="H20" s="1">
+        <v>97</v>
+      </c>
+      <c r="I20" s="1">
+        <v>52</v>
+      </c>
+      <c r="J20" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>0</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5108</v>
+      </c>
+      <c r="D21" s="1">
+        <v>264</v>
+      </c>
+      <c r="E21" s="1">
+        <v>257</v>
+      </c>
+      <c r="F21" s="1">
+        <v>1152</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1637</v>
+      </c>
+      <c r="H21" s="1">
+        <v>14</v>
+      </c>
+      <c r="I21" s="1">
+        <v>504</v>
+      </c>
+      <c r="J21" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>7951</v>
+      </c>
+      <c r="D22" s="1">
+        <v>85</v>
+      </c>
+      <c r="E22" s="1">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1">
+        <v>88</v>
+      </c>
+      <c r="G22" s="1">
+        <v>340</v>
+      </c>
+      <c r="H22" s="1">
+        <v>71</v>
+      </c>
+      <c r="I22" s="1">
+        <v>353</v>
+      </c>
+      <c r="J22" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="1">
+        <v>0</v>
+      </c>
+      <c r="C23" s="1">
+        <v>7890</v>
+      </c>
+      <c r="D23" s="1">
+        <v>139</v>
+      </c>
+      <c r="E23" s="1">
+        <v>18</v>
+      </c>
+      <c r="F23" s="1">
+        <v>98</v>
+      </c>
+      <c r="G23" s="1">
+        <v>747</v>
+      </c>
+      <c r="H23" s="1">
+        <v>114</v>
+      </c>
+      <c r="I23" s="1">
+        <v>267</v>
+      </c>
+      <c r="J23" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="1">
+        <v>0</v>
+      </c>
+      <c r="C24" s="1">
+        <v>7046</v>
+      </c>
+      <c r="D24" s="1">
+        <v>218</v>
+      </c>
+      <c r="E24" s="1">
+        <v>34</v>
+      </c>
+      <c r="F24" s="1">
+        <v>298</v>
+      </c>
+      <c r="G24" s="1">
+        <v>750</v>
+      </c>
+      <c r="H24" s="1">
+        <v>218</v>
+      </c>
+      <c r="I24" s="1">
+        <v>140</v>
+      </c>
+      <c r="J24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0</v>
+      </c>
+      <c r="C25" s="1">
+        <v>6638</v>
+      </c>
+      <c r="D25" s="1">
+        <v>417</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>53</v>
+      </c>
+      <c r="G25" s="1">
+        <v>142</v>
+      </c>
+      <c r="H25" s="1">
+        <v>31</v>
+      </c>
+      <c r="I25" s="1">
+        <v>32</v>
+      </c>
+      <c r="J25" s="1">
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:I1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="文档" ma:contentTypeID="0x0101000CCC32A541702F46A6CCB3BF85EDE9DB" ma:contentTypeVersion="12" ma:contentTypeDescription="新建文档。" ma:contentTypeScope="" ma:versionID="42f5c27c5380a6d71c815158e2fdbf00">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee96044a-9bdd-49f6-b340-e6287396927a" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8645e67c909ebaefdf7ac0e60ee83224" ns3:_="">
     <xsd:import namespace="ee96044a-9bdd-49f6-b340-e6287396927a"/>
@@ -1428,7 +2236,40 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA2540BB-83D7-4902-AD1E-AF75136F2F44}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ee96044a-9bdd-49f6-b340-e6287396927a"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EA1960AE-9D49-40EB-BE78-445A254B68D6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="ee96044a-9bdd-49f6-b340-e6287396927a"/>
@@ -1444,28 +2285,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8C312A1-39B6-41C3-8F19-F954E9608916}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA2540BB-83D7-4902-AD1E-AF75136F2F44}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ee96044a-9bdd-49f6-b340-e6287396927a"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>